--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -1,52 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24812"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_44C8AC42EC5A67D0FE190069326EFCDC3A8ABCC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summary_repository" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summary" sheetId="1" r:id="rId1"/>
+    <sheet name="summary_repository" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">assessment_tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fair_enough_percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuji_percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repository_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-specific repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general-purpose repository</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+  <si>
+    <t>assessment_tool</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>fair_enough_percent</t>
+  </si>
+  <si>
+    <t>fuji_percent</t>
+  </si>
+  <si>
+    <t>repository_type</t>
+  </si>
+  <si>
+    <t>field-specific repository</t>
+  </si>
+  <si>
+    <t>general-purpose repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -80,9 +93,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -364,14 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,49 +407,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>41.77</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>30</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>300</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="C3">
         <v>4.17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,76 +466,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>31.97</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>218</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>67.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>80</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6.32</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.17</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>218</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>48.37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>50</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -1,65 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24812"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_44C8AC42EC5A67D0FE190069326EFCDC3A8ABCC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" r:id="rId1"/>
-    <sheet name="summary_repository" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summary_repository" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
-  <si>
-    <t>assessment_tool</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>fair_enough_percent</t>
-  </si>
-  <si>
-    <t>fuji_percent</t>
-  </si>
-  <si>
-    <t>repository_type</t>
-  </si>
-  <si>
-    <t>field-specific repository</t>
-  </si>
-  <si>
-    <t>general-purpose repository</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">assessment_tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fair_enough_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuji_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repository_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-specific repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general-purpose repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -93,18 +80,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -386,14 +364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,49 +385,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>41.77</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="C2" t="n">
         <v>30</v>
       </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="C3" t="n">
         <v>4.17</v>
       </c>
-      <c r="D3">
-        <v>300</v>
+      <c r="D3" t="n">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,76 +444,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>31.97</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>67.8</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>68.52</v>
+      </c>
+      <c r="D3" t="n">
         <v>80</v>
       </c>
-      <c r="E3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6.32</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>4.17</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>48.37</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="D5" t="n">
         <v>50</v>
       </c>
-      <c r="E5">
-        <v>82</v>
+      <c r="E5" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -390,13 +390,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>41.87</v>
+        <v>41.88</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
@@ -404,13 +404,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>17.85</v>
+        <v>24.46</v>
       </c>
       <c r="C3" t="n">
-        <v>4.17</v>
+        <v>14.58</v>
       </c>
       <c r="D3" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -469,13 +469,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>68.52</v>
+        <v>68.88</v>
       </c>
       <c r="D3" t="n">
         <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>6.32</v>
+        <v>14.18</v>
       </c>
       <c r="D4" t="n">
-        <v>4.17</v>
+        <v>14.58</v>
       </c>
       <c r="E4" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>48.89</v>
+        <v>51.9</v>
       </c>
       <c r="D5" t="n">
         <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -390,13 +390,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>41.88</v>
+        <v>45.84</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
@@ -404,13 +404,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>24.46</v>
+        <v>30.51</v>
       </c>
       <c r="C3" t="n">
-        <v>14.58</v>
+        <v>18.75</v>
       </c>
       <c r="D3" t="n">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -452,13 +452,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>31.97</v>
+        <v>33.05</v>
       </c>
       <c r="D2" t="n">
         <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>68.88</v>
+        <v>73.43</v>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>14.18</v>
+        <v>17.63</v>
       </c>
       <c r="D4" t="n">
-        <v>14.58</v>
+        <v>18.75</v>
       </c>
       <c r="E4" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>51.9</v>
+        <v>57.87</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>58.33</v>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
